--- a/ClindoxAutomation/target/test-classes/AutoCRF_nov2016.xlsx
+++ b/ClindoxAutomation/target/test-classes/AutoCRF_nov2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>CRF</t>
   </si>
@@ -134,13 +134,13 @@
     <t>grid dropdown</t>
   </si>
   <si>
-    <t>section 3</t>
-  </si>
-  <si>
-    <t>Visit2 Section3 question_130204</t>
-  </si>
-  <si>
     <t>gridr1</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,8 +553,8 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -575,7 +575,7 @@
         <v>32</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -609,8 +609,8 @@
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -666,10 +666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -677,11 +677,9 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,22 +713,16 @@
       <c r="K1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
-        <v>3</v>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -751,27 +743,21 @@
         <v>20</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -792,15 +778,9 @@
         <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>22</v>
       </c>
     </row>

--- a/ClindoxAutomation/target/test-classes/AutoCRF_nov2016.xlsx
+++ b/ClindoxAutomation/target/test-classes/AutoCRF_nov2016.xlsx
@@ -137,10 +137,10 @@
     <t>gridr1</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -486,6 +486,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -668,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
